--- a/Generalinformationofschools.xlsx
+++ b/Generalinformationofschools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinkyc/Desktop/RStudio/Spatial Data DSA303 codes/dsa303/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A0EEF-C886-9041-A25E-089E99D745EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8466289B-0FF7-CB49-A958-CD58DB4F42A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15740" xr2:uid="{522D05A2-5317-3747-8602-598015D4C4E2}"/>
   </bookViews>
@@ -10456,8 +10456,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A363177-0813-C94E-8239-1F95109C5455}">
   <dimension ref="A1:AF342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15247,7 +15249,7 @@
         <v>94</v>
       </c>
       <c r="AC49" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="AD49" t="s">
         <v>49</v>
@@ -16910,7 +16912,7 @@
         <v>48</v>
       </c>
       <c r="AC66" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="AD66" t="s">
         <v>49</v>
